--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\Google Drive\Gobi\ConsultarCadastro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E201E-2CF1-4133-B15E-E90B0E9053C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -159,14 +156,124 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName2</t>
+  </si>
+  <si>
+    <t>Fornecedores</t>
+  </si>
+  <si>
+    <t>Consulta de cadastros</t>
+  </si>
+  <si>
+    <t>Orchestrator Settings</t>
+  </si>
+  <si>
+    <t>General Settings</t>
+  </si>
+  <si>
+    <t>Queue Settings</t>
+  </si>
+  <si>
+    <t>End point utilizado para buscar o ID da fila</t>
+  </si>
+  <si>
+    <t>GetQueueDefinition</t>
+  </si>
+  <si>
+    <t>GetQueueItems</t>
+  </si>
+  <si>
+    <t>odata/QueueItems?%24filter=QueueDefinitionId%20eq%20{0}%20and%20Status%20eq%20'New'</t>
+  </si>
+  <si>
+    <t>odata/QueueDefinitions/?$filter=Name eq '{0}'</t>
+  </si>
+  <si>
+    <t>qry_DadosParaFila</t>
+  </si>
+  <si>
+    <t>{0} - Sera substituido pelo nome da fila</t>
+  </si>
+  <si>
+    <t>End point utilizado para buscar a quantidade de novos itens da fila</t>
+  </si>
+  <si>
+    <t>exatoURL</t>
+  </si>
+  <si>
+    <t>exatoToken</t>
+  </si>
+  <si>
+    <t>cadastro_ExatoMainUrl</t>
+  </si>
+  <si>
+    <t>cadastro_Token_Exato</t>
+  </si>
+  <si>
+    <t>url principal exato</t>
+  </si>
+  <si>
+    <t>token para uso do servico</t>
+  </si>
+  <si>
+    <t>Api settings</t>
+  </si>
+  <si>
+    <t>exatoSintegra</t>
+  </si>
+  <si>
+    <t>receita-federal-sintegra/cnpj-sintegra?cnpj={0}&amp;consultar_todas_inscricoes_sintegra=false&amp;token={1}</t>
+  </si>
+  <si>
+    <t>qry_AtualizarDadosOrigem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update [dbo].[tb{0}_origemConsulta] set [uniqueIdentifierConsulta]='{1}', [statusConsulta] = '{2}' where [id]={3}
+</t>
+  </si>
+  <si>
+    <t>{0} - Sera substituido pelo nome da fila, {1} identificador da consulta, {2} status da consulta, {3} id da tabela de origem</t>
+  </si>
+  <si>
+    <t>exatoPF</t>
+  </si>
+  <si>
+    <t>receita-federal-cadastro/cpf-sem-nascimento?cpf={0}&amp;token={1}</t>
+  </si>
+  <si>
+    <t>API modelo GET</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM [dbo].[tb{0}_origemConsulta] where uniqueIdentifierConsulta is null</t>
+  </si>
+  <si>
+    <t>SELECT *  FROM [dbo].[tb{0}_origemConsulta] where uniqueIdentifierSimplesNacional is null and fisico_juridico='J'</t>
+  </si>
+  <si>
+    <t>qry_DadosParaFilaSimplesNacional</t>
+  </si>
+  <si>
+    <t>exatoSimplesNacional</t>
+  </si>
+  <si>
+    <t>receita-federal/simples-nacional?cnpj={0}&amp;token={1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update [dbo].[tb{0}_origemConsulta] set [uniqueIdentifierSimplesNacional]='{1}', [statusConsultaSimplesNacional] = '{2}' where [id]={3}
+</t>
+  </si>
+  <si>
+    <t>qry_AtualizarDadosOrigemSimplesNacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,6 +284,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -190,16 +298,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,20 +342,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,28 +700,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
@@ -583,81 +748,263 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="30">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" s="2" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1608,6 +1955,11 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,15 +1972,15 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +2017,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1673,18 +2025,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +2082,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +2104,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2782,27 +3134,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1"/>
@@ -2828,8 +3182,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
